--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3614,6 +3614,138 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112063112</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57580</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>208249</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vanlig groda</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rana temporaria</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen, Hagalund, Srm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>580550.1418178778</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6579521.799528075</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Michael Lander</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3746,6 +3746,350 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112196967</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43467</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>101735</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Jättesvampmal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Scardia boletella</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Fabricius, 1794)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen , Srm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>580549.8394260339</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6579319.7617336</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112195278</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen , Srm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>580549.8394260339</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6579319.7617336</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112194720</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen , Srm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>580549.8394260339</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6579319.7617336</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>10:56</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Hördes i omgivningen långa rop</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4090,6 +4090,124 @@
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112209549</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60151</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100452</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tvåtandad spolsnäcka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alinda biplicata</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Montagu, 1803)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen , Srm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>580550</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6579320</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Åt på en hasselticka</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>580550.1418178778</v>
+        <v>580550</v>
       </c>
       <c r="R24" t="n">
-        <v>6579521.799528075</v>
+        <v>6579522</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112196967</v>
+        <v>112195278</v>
       </c>
       <c r="B25" t="n">
-        <v>43467</v>
+        <v>8377</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3764,21 +3764,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>101735</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>580549.8394260339</v>
+        <v>580550</v>
       </c>
       <c r="R25" t="n">
-        <v>6579319.7617336</v>
+        <v>6579320</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3861,10 +3861,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112195278</v>
+        <v>112196861</v>
       </c>
       <c r="B26" t="n">
-        <v>8377</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3873,25 +3873,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>580549.8394260339</v>
+        <v>580550</v>
       </c>
       <c r="R26" t="n">
-        <v>6579319.7617336</v>
+        <v>6579320</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3974,10 +3974,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112194720</v>
+        <v>112196324</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>89953</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3986,25 +3986,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>3884</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>580549.8394260339</v>
+        <v>580550</v>
       </c>
       <c r="R27" t="n">
-        <v>6579319.7617336</v>
+        <v>6579320</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4060,12 +4060,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:56</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Hördes i omgivningen långa rop</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4092,10 +4087,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112209549</v>
+        <v>112196967</v>
       </c>
       <c r="B28" t="n">
-        <v>60151</v>
+        <v>43467</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4104,25 +4099,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100452</v>
+        <v>101735</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tvåtandad spolsnäcka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alinda biplicata</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Montagu, 1803)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4168,7 +4163,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4178,12 +4173,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:02</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Åt på en hasselticka</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4207,6 +4197,124 @@
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112209549</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60151</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100452</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tvåtandad spolsnäcka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alinda biplicata</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Montagu, 1803)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Flugmötesskogen , Srm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>580550</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6579320</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:02</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Åt på en hasselticka</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Ella Axelsson Elfving</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -3619,7 +3619,7 @@
         <v>112063112</v>
       </c>
       <c r="B24" t="n">
-        <v>57580</v>
+        <v>57612</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112195278</v>
+        <v>112194813</v>
       </c>
       <c r="B25" t="n">
-        <v>8377</v>
+        <v>90087</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3764,21 +3764,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>3884</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3864,7 +3864,7 @@
         <v>112196861</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112196324</v>
+        <v>112196967</v>
       </c>
       <c r="B27" t="n">
-        <v>89953</v>
+        <v>43473</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3990,21 +3990,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3884</v>
+        <v>101735</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4087,10 +4087,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112196967</v>
+        <v>112195278</v>
       </c>
       <c r="B28" t="n">
-        <v>43467</v>
+        <v>8377</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4103,21 +4103,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101735</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4203,7 +4203,7 @@
         <v>112209549</v>
       </c>
       <c r="B29" t="n">
-        <v>60151</v>
+        <v>60196</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -3974,10 +3974,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112196967</v>
+        <v>112195278</v>
       </c>
       <c r="B27" t="n">
-        <v>43473</v>
+        <v>8377</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3990,21 +3990,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>101735</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4087,10 +4087,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112195278</v>
+        <v>112196967</v>
       </c>
       <c r="B28" t="n">
-        <v>8377</v>
+        <v>43473</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4103,21 +4103,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>101735</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -3748,10 +3748,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112194813</v>
+        <v>112194720</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3760,25 +3760,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3884</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3834,7 +3834,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:56</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Hördes i omgivningen långa rop</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3861,10 +3866,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112196861</v>
+        <v>112196967</v>
       </c>
       <c r="B26" t="n">
-        <v>56446</v>
+        <v>43473</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3873,25 +3878,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>101735</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -4087,10 +4092,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112196967</v>
+        <v>112194813</v>
       </c>
       <c r="B28" t="n">
-        <v>43473</v>
+        <v>90101</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4103,21 +4108,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101735</v>
+        <v>3884</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4163,7 +4168,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4173,7 +4178,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 29642-2022.xlsx
+++ b/artfynd/A 29642-2022.xlsx
@@ -3748,10 +3748,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112194720</v>
+        <v>112195278</v>
       </c>
       <c r="B25" t="n">
-        <v>56446</v>
+        <v>8377</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3760,25 +3760,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3834,12 +3834,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:56</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Hördes i omgivningen långa rop</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3866,10 +3861,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112196967</v>
+        <v>112194720</v>
       </c>
       <c r="B26" t="n">
-        <v>43473</v>
+        <v>56446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3878,25 +3873,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>101735</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Jättesvampmal</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Scardia boletella</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fabricius, 1794)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3942,7 +3937,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3952,7 +3947,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:56</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Hördes i omgivningen långa rop</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3979,10 +3979,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112195278</v>
+        <v>112196967</v>
       </c>
       <c r="B27" t="n">
-        <v>8377</v>
+        <v>43473</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3995,21 +3995,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>101735</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Jättesvampmal</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Scardia boletella</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fabricius, 1794)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4092,7 +4092,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112194813</v>
+        <v>112196450</v>
       </c>
       <c r="B28" t="n">
         <v>90101</v>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD28" t="b">
